--- a/config_1.26/act_ty_fkqjd_config.xlsx
+++ b/config_1.26/act_ty_fkqjd_config.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="platform_or_channel_or_level" sheetId="1" r:id="rId1"/>
     <sheet name="other_data" sheetId="2" r:id="rId2"/>
     <sheet name="gift_config1" sheetId="3" r:id="rId3"/>
     <sheet name="eggs_config1" sheetId="4" r:id="rId4"/>
+    <sheet name="gift_config2" sheetId="5" r:id="rId5"/>
+    <sheet name="eggs_config2" sheetId="6" r:id="rId6"/>
+    <sheet name="gift_config3" sheetId="7" r:id="rId7"/>
+    <sheet name="eggs_config3" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>line</t>
   </si>
@@ -31,9 +40,6 @@
     <t>eggs_config|对应的工作簿名</t>
   </si>
   <si>
-    <t>sdasd</t>
-  </si>
-  <si>
     <t>gift_config1</t>
   </si>
   <si>
@@ -85,18 +91,9 @@
     <t>award_tips|奖励长按提示</t>
   </si>
   <si>
-    <t>"x1800000","x1",</t>
-  </si>
-  <si>
     <t>"",""</t>
   </si>
   <si>
-    <t>"x3000000","x1",</t>
-  </si>
-  <si>
-    <t>"x4800000","x1",</t>
-  </si>
-  <si>
     <t>task_id|任务id</t>
   </si>
   <si>
@@ -115,26 +112,596 @@
     <t>eggs_tip|点击蛋的提示</t>
   </si>
   <si>
-    <t>sdas</t>
-  </si>
-  <si>
-    <t>"","","","",""</t>
-  </si>
-  <si>
     <t>"",</t>
+  </si>
+  <si>
+    <t>hlqjd_029_hlqjd_v1</t>
+  </si>
+  <si>
+    <t>hlqjd_029_hlqjd_v4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlqjd_029_hlqjd_v8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"金币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18万","铜锤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1",</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*300万","银锤*1",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"金币*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>480万","金锤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1",</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_1</t>
+  </si>
+  <si>
+    <r>
+      <t>prop_brass_hammer_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>prop_brass_hammer_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"金币*4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万","铜锤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1",</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*980万","银锤*1",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"金币*19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80万","金锤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1",</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","银锤",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","金锤",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fkqjd_icon_d1","zjd_icon_z2","zjd_icon_z3","zjd_icon_z4","zjd_icon_z5"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fkqjd_icon_d2","zjd_icon_d2","zjd_icon_d3","zjd_icon_d4","zjd_icon_d5"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fkqjd_icon_d13","zjd_icon_j2","zjd_icon_j3","zjd_icon_j4","zjd_icon_j5"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_18y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com_award_icon_cz2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_30y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com_award_icon_cz31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_48y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com_award_icon_cz4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_48y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com_award_icon_cz2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_98y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com_award_icon_cz31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_198y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com_award_icon_cz4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","铜锤",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_98y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com_award_icon_cz2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_198y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com_award_icon_cz31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"ty_icon_jb_498y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com_award_icon_cz4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,25 +717,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -176,125 +733,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,198 +754,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -502,255 +767,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -769,62 +792,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1111,26 +1099,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="28.375" customWidth="1"/>
     <col min="4" max="4" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:17">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1157,18 +1145,18 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1184,16 +1172,18 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1209,16 +1199,18 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1234,7 +1226,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1253,7 +1245,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1272,7 +1264,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1291,7 +1283,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1310,7 +1302,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1329,7 +1321,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1348,7 +1340,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1367,7 +1359,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1386,7 +1378,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1405,7 +1397,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1424,7 +1416,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1443,7 +1435,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1462,7 +1454,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1481,7 +1473,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1500,7 +1492,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1519,7 +1511,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1538,7 +1530,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1557,7 +1549,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1576,7 +1568,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1595,7 +1587,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1614,7 +1606,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1633,7 +1625,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1652,7 +1644,7 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1672,43 +1664,42 @@
       <c r="Q27" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="21.625" customWidth="1"/>
     <col min="4" max="4" width="52.75" customWidth="1"/>
     <col min="5" max="5" width="44.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:19">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1725,21 +1716,21 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" ht="58" customHeight="1" spans="1:19">
+    <row r="2" spans="1:19" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>1608593400</v>
+        <v>1611619200</v>
       </c>
       <c r="C2" s="3">
-        <v>1609171199</v>
+        <v>1612195199</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1756,7 +1747,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1777,7 +1768,7 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1798,7 +1789,7 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1819,7 +1810,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1840,7 +1831,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1861,7 +1852,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1882,7 +1873,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1903,7 +1894,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1924,7 +1915,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1945,7 +1936,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1966,7 +1957,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1987,7 +1978,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2008,7 +1999,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2029,7 +2020,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2050,7 +2041,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2071,7 +2062,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2092,7 +2083,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2113,7 +2104,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2134,7 +2125,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2155,7 +2146,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2176,7 +2167,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2197,7 +2188,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2218,7 +2209,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2239,7 +2230,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2260,7 +2251,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2281,7 +2272,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2303,47 +2294,47 @@
       <c r="S28" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="5" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
+    <col min="5" max="5" width="40.25" customWidth="1"/>
     <col min="6" max="6" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:17">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2357,24 +2348,24 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>4543</v>
+      <c r="B2" s="7">
+        <v>10449</v>
       </c>
       <c r="C2" s="3">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
+      <c r="D2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2388,20 +2379,24 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="7">
+        <v>10450</v>
+      </c>
       <c r="C3" s="3">
         <v>30</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3"/>
+      <c r="D3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="F3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -2415,20 +2410,24 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="7">
+        <v>10451</v>
+      </c>
       <c r="C4" s="3">
         <v>48</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3"/>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2442,7 +2441,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2461,7 +2460,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2480,7 +2479,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2499,7 +2498,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2518,7 +2517,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2537,7 +2536,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2556,7 +2555,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2575,7 +2574,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2594,7 +2593,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2613,7 +2612,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2632,7 +2631,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2651,7 +2650,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2670,7 +2669,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2689,7 +2688,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2708,7 +2707,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2727,7 +2726,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2746,7 +2745,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2766,52 +2765,51 @@
       <c r="Q21" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="29.125" customWidth="1"/>
+    <col min="4" max="4" width="73.375" customWidth="1"/>
     <col min="5" max="5" width="27.5" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:20">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2827,18 +2825,18 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>343</v>
+      <c r="B2" s="8">
+        <v>1000235</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2847,7 +2845,7 @@
         <v>500000</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -2863,13 +2861,19 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="8">
+        <v>1000235</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="E3" s="3">
         <v>5</v>
       </c>
@@ -2891,13 +2895,19 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="8">
+        <v>1000235</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="E4" s="3">
         <v>5</v>
       </c>
@@ -2919,11 +2929,10 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -2941,7 +2950,7 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2963,7 +2972,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2985,11 +2994,10 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3007,7 +3015,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3029,7 +3037,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3051,7 +3059,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3073,7 +3081,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3095,7 +3103,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3117,7 +3125,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3139,7 +3147,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3161,7 +3169,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3183,7 +3191,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3205,7 +3213,7 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3227,7 +3235,7 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3249,7 +3257,7 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3271,7 +3279,7 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3293,7 +3301,7 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3316,7 +3324,630 @@
       <c r="T22" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="40.5" customWidth="1"/>
+    <col min="6" max="6" width="24.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>10452</v>
+      </c>
+      <c r="C2" s="3">
+        <v>48</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>10453</v>
+      </c>
+      <c r="C3" s="3">
+        <v>98</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>10454</v>
+      </c>
+      <c r="C4" s="3">
+        <v>198</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="73.875" customWidth="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1"/>
+    <col min="6" max="6" width="25.875" customWidth="1"/>
+    <col min="7" max="7" width="22.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1000236</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1000236</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1000236</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
+    <col min="5" max="5" width="40.25" customWidth="1"/>
+    <col min="6" max="6" width="24.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>10455</v>
+      </c>
+      <c r="C2" s="3">
+        <v>98</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>10456</v>
+      </c>
+      <c r="C3" s="3">
+        <v>198</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>10457</v>
+      </c>
+      <c r="C4" s="3">
+        <v>498</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="73.125" customWidth="1"/>
+    <col min="5" max="5" width="26.75" customWidth="1"/>
+    <col min="6" max="6" width="26.25" customWidth="1"/>
+    <col min="7" max="7" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1000237</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1000237</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1000237</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>9000000</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config_1.26/act_ty_fkqjd_config.xlsx
+++ b/config_1.26/act_ty_fkqjd_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="platform_or_channel_or_level" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t>line</t>
   </si>
@@ -134,6 +134,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -155,6 +156,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -175,6 +177,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,6 +199,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -204,43 +208,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>prop_brass_hammer_1</t>
-  </si>
-  <si>
-    <r>
-      <t>prop_brass_hammer_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>prop_brass_hammer_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>"金币*4</t>
     </r>
@@ -249,6 +216,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -270,6 +238,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -291,6 +260,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -311,6 +281,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -332,6 +303,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -368,6 +340,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -389,6 +362,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -405,6 +379,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -426,6 +401,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -442,6 +418,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -463,6 +440,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -479,6 +457,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -500,6 +479,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -516,6 +496,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -537,6 +518,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -553,6 +535,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -574,6 +557,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -594,6 +578,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -615,6 +600,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -631,6 +617,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -652,6 +639,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -668,6 +656,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -689,19 +678,56 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>"</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,12 +739,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -743,6 +771,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF191F25"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -773,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -799,6 +833,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -861,7 +898,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -896,7 +933,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2304,8 +2341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2362,7 +2399,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
@@ -2393,7 +2430,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
@@ -2424,7 +2461,7 @@
         <v>34</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>21</v>
@@ -2776,7 +2813,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2825,18 +2862,18 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="8">
         <v>1000235</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>35</v>
+      <c r="C2" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2861,18 +2898,18 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="8">
         <v>1000235</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>36</v>
+      <c r="C3" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2895,18 +2932,18 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="8">
         <v>1000235</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>37</v>
+      <c r="C4" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3">
         <v>5</v>
@@ -3388,10 +3425,10 @@
         <v>48</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
@@ -3419,10 +3456,10 @@
         <v>98</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
@@ -3450,10 +3487,10 @@
         <v>198</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>21</v>
@@ -3481,7 +3518,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3530,18 +3567,18 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="8">
         <v>1000236</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>35</v>
+      <c r="C2" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3566,18 +3603,18 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="8">
         <v>1000236</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>36</v>
+      <c r="C3" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3600,18 +3637,18 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="8">
         <v>1000236</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>37</v>
+      <c r="C4" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3">
         <v>5</v>
@@ -3700,10 +3737,10 @@
         <v>98</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
@@ -3731,10 +3768,10 @@
         <v>198</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
@@ -3762,10 +3799,10 @@
         <v>498</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>21</v>
@@ -3792,8 +3829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3842,18 +3879,18 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="8">
         <v>1000237</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>35</v>
+      <c r="C2" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3878,18 +3915,18 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="8">
         <v>1000237</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>36</v>
+      <c r="C3" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3912,18 +3949,18 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="8">
         <v>1000237</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>37</v>
+      <c r="C4" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3">
         <v>5</v>

--- a/config_1.26/act_ty_fkqjd_config.xlsx
+++ b/config_1.26/act_ty_fkqjd_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="platform_or_channel_or_level" sheetId="1" r:id="rId1"/>
@@ -320,18 +320,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"fkqjd_icon_d1","zjd_icon_z2","zjd_icon_z3","zjd_icon_z4","zjd_icon_z5"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"fkqjd_icon_d2","zjd_icon_d2","zjd_icon_d3","zjd_icon_d4","zjd_icon_d5"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"fkqjd_icon_d13","zjd_icon_j2","zjd_icon_j3","zjd_icon_j4","zjd_icon_j5"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>"ty_icon_jb_18y</t>
     </r>
@@ -721,6 +709,31 @@
   <si>
     <t>prop_gold_hammer_3</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"fkqjd_icon_d1","zjd_icon_z2","zjd_icon_z3","zjd_icon_z4","zjd_icon_z5"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"zjd_icon_z1"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fkqjd_icon_d3","zjd_icon_j2","zjd_icon_j3","zjd_icon_j4","zjd_icon_j5","zjd_icon_j1"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fkqjd_icon_d2","zjd_icon_d2","zjd_icon_d3","zjd_icon_d4","zjd_icon_d5","zjd_icon_d1"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -807,7 +820,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,6 +849,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2399,7 +2415,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
@@ -2430,7 +2446,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
@@ -2461,7 +2477,7 @@
         <v>34</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>21</v>
@@ -2813,14 +2829,14 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="73.375" customWidth="1"/>
+    <col min="4" max="4" width="94.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.5" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="22.875" customWidth="1"/>
@@ -2870,10 +2886,10 @@
         <v>1000235</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -2906,10 +2922,10 @@
         <v>1000236</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -2940,10 +2956,10 @@
         <v>1000237</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>42</v>
+        <v>52</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="E4" s="3">
         <v>5</v>
@@ -3371,7 +3387,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3428,7 +3444,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
@@ -3459,7 +3475,7 @@
         <v>36</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
@@ -3490,7 +3506,7 @@
         <v>37</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>21</v>
@@ -3518,14 +3534,14 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="26.875" customWidth="1"/>
-    <col min="4" max="4" width="73.875" customWidth="1"/>
+    <col min="4" max="4" width="94.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.75" customWidth="1"/>
     <col min="6" max="6" width="25.875" customWidth="1"/>
     <col min="7" max="7" width="22.375" customWidth="1"/>
@@ -3575,10 +3591,10 @@
         <v>1000235</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>40</v>
+        <v>53</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3611,10 +3627,10 @@
         <v>1000236</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3645,10 +3661,10 @@
         <v>1000237</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>42</v>
+        <v>55</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="E4" s="3">
         <v>5</v>
@@ -3681,8 +3697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3737,10 +3753,10 @@
         <v>98</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
@@ -3771,7 +3787,7 @@
         <v>38</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
@@ -3802,7 +3818,7 @@
         <v>39</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>21</v>
@@ -3829,15 +3845,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="73.125" customWidth="1"/>
+    <col min="4" max="4" width="94.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.75" customWidth="1"/>
     <col min="6" max="6" width="26.25" customWidth="1"/>
     <col min="7" max="7" width="24.125" customWidth="1"/>
@@ -3887,10 +3903,10 @@
         <v>1000235</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="E2" s="3">
         <v>5</v>
@@ -3923,10 +3939,10 @@
         <v>1000236</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>41</v>
+        <v>57</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -3957,10 +3973,10 @@
         <v>1000237</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>42</v>
+        <v>58</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="E4" s="3">
         <v>5</v>

--- a/config_1.26/act_ty_fkqjd_config.xlsx
+++ b/config_1.26/act_ty_fkqjd_config.xlsx
@@ -2813,7 +2813,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2903,7 +2903,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8">
-        <v>1000235</v>
+        <v>1000236</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>54</v>
@@ -2937,7 +2937,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>1000235</v>
+        <v>1000237</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>55</v>
@@ -3518,7 +3518,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3572,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <v>1000236</v>
+        <v>1000235</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>56</v>
@@ -3642,7 +3642,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>1000236</v>
+        <v>1000237</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>58</v>
@@ -3830,7 +3830,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3884,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <v>1000237</v>
+        <v>1000235</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>59</v>
@@ -3920,7 +3920,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8">
-        <v>1000237</v>
+        <v>1000236</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>60</v>

--- a/config_1.26/act_ty_fkqjd_config.xlsx
+++ b/config_1.26/act_ty_fkqjd_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="platform_or_channel_or_level" sheetId="1" r:id="rId1"/>
@@ -2813,7 +2813,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3681,7 +3681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -3829,7 +3829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
